--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3117.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3117.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.698958833730035</v>
+        <v>2.24309515953064</v>
       </c>
       <c r="B1">
-        <v>2.354954171683058</v>
+        <v>2.774164915084839</v>
       </c>
       <c r="C1">
-        <v>4.14872377840111</v>
+        <v>2.933178901672363</v>
       </c>
       <c r="D1">
-        <v>3.87080056065732</v>
+        <v>2.496977090835571</v>
       </c>
       <c r="E1">
-        <v>0.5897231984224006</v>
+        <v>0.8581372499465942</v>
       </c>
     </row>
   </sheetData>
